--- a/tests/unit/apps/payment/test_file/pp_payment_list_unexpected_column.xlsx
+++ b/tests/unit/apps/payment/test_file/pp_payment_list_unexpected_column.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
-    <t>payment_id</t>
+    <t>payment_id_wrong</t>
   </si>
   <si>
     <t>household_id</t>
@@ -40,7 +40,7 @@
     <t>currency</t>
   </si>
   <si>
-    <t>entitlement_quantity</t>
+    <t>entitlement_quantity_wrong</t>
   </si>
   <si>
     <t>entitlement_quantity_usd</t>
